--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125032a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125032a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>total(1)</t>
   </si>
@@ -22,7 +22,7 @@
     <t>classes de rendimento mensal domiciliar per capita (salário mínimo)</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>sem rendimento a menos de 1/4 (2)</t>
@@ -43,18 +43,12 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
   </si>
   <si>
-    <t>grandes regiões e unidades da federação</t>
-  </si>
-  <si>
     <t>norte</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
   </si>
   <si>
     <t>distrito federal</t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,6 +567,24 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.61</v>
+      </c>
+      <c r="D5">
+        <v>3.3</v>
+      </c>
+      <c r="E5">
+        <v>2.06</v>
+      </c>
+      <c r="F5">
+        <v>1.85</v>
+      </c>
+      <c r="G5">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -585,19 +594,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.61</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>3.3</v>
+        <v>6.75</v>
       </c>
       <c r="E6">
-        <v>2.06</v>
+        <v>5.8</v>
       </c>
       <c r="F6">
-        <v>1.85</v>
+        <v>6.86</v>
       </c>
       <c r="G6">
-        <v>2.32</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -608,25 +617,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.9</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D7">
-        <v>6.75</v>
+        <v>5.8</v>
       </c>
       <c r="E7">
-        <v>5.8</v>
+        <v>3.63</v>
       </c>
       <c r="F7">
-        <v>6.86</v>
+        <v>4.09</v>
       </c>
       <c r="G7">
-        <v>10.24</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>29.41</v>
+      </c>
+      <c r="D8">
+        <v>18.41</v>
+      </c>
+      <c r="E8">
+        <v>9.93</v>
+      </c>
+      <c r="F8">
+        <v>12.53</v>
+      </c>
+      <c r="G8">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -636,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.470000000000001</v>
+        <v>23.03</v>
       </c>
       <c r="D9">
-        <v>5.8</v>
+        <v>18.11</v>
       </c>
       <c r="E9">
-        <v>3.63</v>
+        <v>9.9</v>
       </c>
       <c r="F9">
-        <v>4.09</v>
+        <v>18.5</v>
       </c>
       <c r="G9">
-        <v>6.26</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -659,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>29.41</v>
+        <v>24.35</v>
       </c>
       <c r="D10">
-        <v>18.41</v>
+        <v>17.8</v>
       </c>
       <c r="E10">
-        <v>9.93</v>
+        <v>9.4</v>
       </c>
       <c r="F10">
-        <v>12.53</v>
+        <v>10.74</v>
       </c>
       <c r="G10">
-        <v>14.92</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -682,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>23.03</v>
+        <v>29.65</v>
       </c>
       <c r="D11">
-        <v>18.11</v>
+        <v>20.98</v>
       </c>
       <c r="E11">
-        <v>9.9</v>
+        <v>17.39</v>
       </c>
       <c r="F11">
-        <v>18.5</v>
+        <v>19.21</v>
       </c>
       <c r="G11">
-        <v>18.83</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -705,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>24.35</v>
+        <v>11.87</v>
       </c>
       <c r="D12">
-        <v>17.8</v>
+        <v>8.66</v>
       </c>
       <c r="E12">
-        <v>9.4</v>
+        <v>5.79</v>
       </c>
       <c r="F12">
-        <v>10.74</v>
+        <v>5.67</v>
       </c>
       <c r="G12">
-        <v>16.86</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -728,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>29.65</v>
+        <v>46.44</v>
       </c>
       <c r="D13">
-        <v>20.98</v>
+        <v>21.76</v>
       </c>
       <c r="E13">
-        <v>17.39</v>
+        <v>12.92</v>
       </c>
       <c r="F13">
-        <v>19.21</v>
+        <v>19.96</v>
       </c>
       <c r="G13">
-        <v>24.62</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -751,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.87</v>
+        <v>26.23</v>
       </c>
       <c r="D14">
-        <v>8.66</v>
+        <v>15.76</v>
       </c>
       <c r="E14">
-        <v>5.79</v>
+        <v>10.47</v>
       </c>
       <c r="F14">
-        <v>5.67</v>
+        <v>11.51</v>
       </c>
       <c r="G14">
-        <v>12.45</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -774,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>46.44</v>
+        <v>5.7</v>
       </c>
       <c r="D15">
-        <v>21.76</v>
+        <v>4.12</v>
       </c>
       <c r="E15">
-        <v>12.92</v>
+        <v>3.42</v>
       </c>
       <c r="F15">
-        <v>19.96</v>
+        <v>4.69</v>
       </c>
       <c r="G15">
-        <v>22.53</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -797,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>26.23</v>
+        <v>18.43</v>
       </c>
       <c r="D16">
-        <v>15.76</v>
+        <v>11.24</v>
       </c>
       <c r="E16">
-        <v>10.47</v>
+        <v>11.35</v>
       </c>
       <c r="F16">
-        <v>11.51</v>
+        <v>19.16</v>
       </c>
       <c r="G16">
-        <v>13.28</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -820,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.7</v>
+        <v>19.87</v>
       </c>
       <c r="D17">
-        <v>4.12</v>
+        <v>21.43</v>
       </c>
       <c r="E17">
-        <v>3.42</v>
+        <v>14.73</v>
       </c>
       <c r="F17">
-        <v>4.69</v>
+        <v>15.3</v>
       </c>
       <c r="G17">
-        <v>5.9</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -843,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>18.43</v>
+        <v>9.92</v>
       </c>
       <c r="D18">
-        <v>11.24</v>
+        <v>7.19</v>
       </c>
       <c r="E18">
-        <v>11.35</v>
+        <v>6.14</v>
       </c>
       <c r="F18">
-        <v>19.16</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G18">
-        <v>18.02</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -866,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>19.87</v>
+        <v>21.93</v>
       </c>
       <c r="D19">
-        <v>21.43</v>
+        <v>14.36</v>
       </c>
       <c r="E19">
-        <v>14.73</v>
+        <v>12.1</v>
       </c>
       <c r="F19">
-        <v>15.3</v>
+        <v>15.61</v>
       </c>
       <c r="G19">
-        <v>19.61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -889,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.92</v>
+        <v>30.73</v>
       </c>
       <c r="D20">
-        <v>7.19</v>
+        <v>28.16</v>
       </c>
       <c r="E20">
-        <v>6.14</v>
+        <v>16.29</v>
       </c>
       <c r="F20">
-        <v>9.369999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="G20">
-        <v>13.44</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -912,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>21.93</v>
+        <v>14.6</v>
       </c>
       <c r="D21">
-        <v>14.36</v>
+        <v>10.52</v>
       </c>
       <c r="E21">
-        <v>12.1</v>
+        <v>7.83</v>
       </c>
       <c r="F21">
-        <v>15.61</v>
+        <v>11.21</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -935,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>30.73</v>
+        <v>20.62</v>
       </c>
       <c r="D22">
-        <v>28.16</v>
+        <v>18.53</v>
       </c>
       <c r="E22">
-        <v>16.29</v>
+        <v>17.9</v>
       </c>
       <c r="F22">
-        <v>22.1</v>
+        <v>16.2</v>
       </c>
       <c r="G22">
-        <v>28.33</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -958,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.6</v>
+        <v>17.47</v>
       </c>
       <c r="D23">
-        <v>10.52</v>
+        <v>10.39</v>
       </c>
       <c r="E23">
-        <v>7.83</v>
+        <v>11.58</v>
       </c>
       <c r="F23">
-        <v>11.21</v>
+        <v>11.4</v>
       </c>
       <c r="G23">
-        <v>14.2</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -981,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>20.62</v>
+        <v>9.73</v>
       </c>
       <c r="D24">
-        <v>18.53</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E24">
-        <v>17.9</v>
+        <v>6.81</v>
       </c>
       <c r="F24">
-        <v>16.2</v>
+        <v>6.64</v>
       </c>
       <c r="G24">
-        <v>27.42</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1004,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>17.47</v>
+        <v>9.17</v>
       </c>
       <c r="D25">
-        <v>10.39</v>
+        <v>7.06</v>
       </c>
       <c r="E25">
-        <v>11.58</v>
+        <v>3.99</v>
       </c>
       <c r="F25">
-        <v>11.4</v>
+        <v>3.1</v>
       </c>
       <c r="G25">
-        <v>19.91</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1027,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>9.73</v>
+        <v>11.84</v>
       </c>
       <c r="D26">
-        <v>8.029999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="E26">
-        <v>6.81</v>
+        <v>5.4</v>
       </c>
       <c r="F26">
-        <v>6.64</v>
+        <v>4.67</v>
       </c>
       <c r="G26">
-        <v>9.380000000000001</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1050,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>9.17</v>
+        <v>28.07</v>
       </c>
       <c r="D27">
-        <v>7.06</v>
+        <v>16.65</v>
       </c>
       <c r="E27">
-        <v>3.99</v>
+        <v>13.87</v>
       </c>
       <c r="F27">
-        <v>3.1</v>
+        <v>11.14</v>
       </c>
       <c r="G27">
-        <v>3.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1073,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>11.84</v>
+        <v>23.48</v>
       </c>
       <c r="D28">
-        <v>10.44</v>
+        <v>16.04</v>
       </c>
       <c r="E28">
-        <v>5.4</v>
+        <v>9.66</v>
       </c>
       <c r="F28">
-        <v>4.67</v>
+        <v>7.64</v>
       </c>
       <c r="G28">
-        <v>5.53</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1096,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>28.07</v>
+        <v>17.68</v>
       </c>
       <c r="D29">
-        <v>16.65</v>
+        <v>13.47</v>
       </c>
       <c r="E29">
-        <v>13.87</v>
+        <v>6.64</v>
       </c>
       <c r="F29">
-        <v>11.14</v>
+        <v>4.77</v>
       </c>
       <c r="G29">
-        <v>13.88</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1119,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>23.48</v>
+        <v>12.91</v>
       </c>
       <c r="D30">
-        <v>16.04</v>
+        <v>8.19</v>
       </c>
       <c r="E30">
-        <v>9.66</v>
+        <v>5.03</v>
       </c>
       <c r="F30">
-        <v>7.64</v>
+        <v>3.55</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1142,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>17.68</v>
+        <v>19.59</v>
       </c>
       <c r="D31">
-        <v>13.47</v>
+        <v>14.3</v>
       </c>
       <c r="E31">
-        <v>6.64</v>
+        <v>7.84</v>
       </c>
       <c r="F31">
-        <v>4.77</v>
+        <v>6.44</v>
       </c>
       <c r="G31">
-        <v>4.93</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1165,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>12.91</v>
+        <v>38.79</v>
       </c>
       <c r="D32">
-        <v>8.19</v>
+        <v>24.36</v>
       </c>
       <c r="E32">
-        <v>5.03</v>
+        <v>12.25</v>
       </c>
       <c r="F32">
-        <v>3.55</v>
+        <v>6.63</v>
       </c>
       <c r="G32">
-        <v>4.11</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1188,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>19.59</v>
+        <v>18.15</v>
       </c>
       <c r="D33">
-        <v>14.3</v>
+        <v>10.36</v>
       </c>
       <c r="E33">
-        <v>7.84</v>
+        <v>7.74</v>
       </c>
       <c r="F33">
-        <v>6.44</v>
+        <v>5.25</v>
       </c>
       <c r="G33">
-        <v>6.48</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1211,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>38.79</v>
+        <v>13.86</v>
       </c>
       <c r="D34">
-        <v>24.36</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E34">
-        <v>12.25</v>
+        <v>4.38</v>
       </c>
       <c r="F34">
-        <v>6.63</v>
+        <v>3.66</v>
       </c>
       <c r="G34">
-        <v>9.52</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1234,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>18.15</v>
+        <v>30.17</v>
       </c>
       <c r="D35">
-        <v>10.36</v>
+        <v>15.5</v>
       </c>
       <c r="E35">
-        <v>7.74</v>
+        <v>7.51</v>
       </c>
       <c r="F35">
-        <v>5.25</v>
+        <v>7.56</v>
       </c>
       <c r="G35">
-        <v>6.19</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1257,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>13.86</v>
+        <v>26.68</v>
       </c>
       <c r="D36">
-        <v>8.029999999999999</v>
+        <v>19.96</v>
       </c>
       <c r="E36">
-        <v>4.38</v>
+        <v>10.51</v>
       </c>
       <c r="F36">
-        <v>3.66</v>
+        <v>7.65</v>
       </c>
       <c r="G36">
-        <v>5.48</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1280,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>30.17</v>
+        <v>22.55</v>
       </c>
       <c r="D37">
-        <v>15.5</v>
+        <v>11.12</v>
       </c>
       <c r="E37">
-        <v>7.51</v>
+        <v>6.74</v>
       </c>
       <c r="F37">
-        <v>7.56</v>
+        <v>5.34</v>
       </c>
       <c r="G37">
-        <v>14.62</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1303,70 +1330,19 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>26.68</v>
+        <v>31.87</v>
       </c>
       <c r="D38">
-        <v>19.96</v>
+        <v>32.19</v>
       </c>
       <c r="E38">
-        <v>10.51</v>
+        <v>11.25</v>
       </c>
       <c r="F38">
-        <v>7.65</v>
+        <v>11.62</v>
       </c>
       <c r="G38">
-        <v>11.54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>22.55</v>
-      </c>
-      <c r="D39">
-        <v>11.12</v>
-      </c>
-      <c r="E39">
-        <v>6.74</v>
-      </c>
-      <c r="F39">
-        <v>5.34</v>
-      </c>
-      <c r="G39">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>31.87</v>
-      </c>
-      <c r="D40">
-        <v>32.19</v>
-      </c>
-      <c r="E40">
-        <v>11.25</v>
-      </c>
-      <c r="F40">
-        <v>11.62</v>
-      </c>
-      <c r="G40">
         <v>7.19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
